--- a/Feeler Gage Datasheets.xlsx
+++ b/Feeler Gage Datasheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jgiquality-my.sharepoint.com/personal/kkabler_jgiquality_com/Documents/Shared with Everyone/Dimensional Lab South/Feeler Gage Orders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jgiquality.sharepoint.com/sites/JGI/Shared Documents/Kelly Kabler's OneDrive/Shared with Everyone/Dimensional Lab South/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="628" documentId="8_{A58E878B-C08C-4A79-8EAA-EEA3802E098D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A23B2C0D-9366-47F0-B2DA-2212AA18C728}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{E56341CC-5E44-4F5A-BB27-21E7B8735D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15AD74FD-C9AA-4D63-9D82-34A2B540F44C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B46A4778-51AE-4DE3-A0C9-52DD7DC8D2A8}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B46A4778-51AE-4DE3-A0C9-52DD7DC8D2A8}"/>
   </bookViews>
   <sheets>
     <sheet name=".0015&quot;-.040&quot;" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="JGI - 1197" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'.0015"-.040"'!$A$1:$F$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'.0015"-.040"'!$A$1:$F$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Misc!$A$1:$G$46</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -36,6 +36,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="36">
   <si>
     <t>Johnson Gage and Inspection, Inc.</t>
   </si>
@@ -152,27 +154,6 @@
   <si>
     <t>±0.00067"</t>
   </si>
-  <si>
-    <t>56561-024288</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>0.00020"</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>006307</t>
-  </si>
-  <si>
-    <t>56561-026532</t>
-  </si>
-  <si>
-    <t>Supplementary Data Sheet to Order #56561-042301(2)</t>
-  </si>
 </sst>
 </file>
 
@@ -191,7 +172,7 @@
     <numFmt numFmtId="173" formatCode="0.00&quot;mm&quot;"/>
     <numFmt numFmtId="174" formatCode="\±0.000&quot;mm&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -609,20 +590,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -826,18 +798,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -849,13 +816,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,13 +1138,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
@@ -1572,46 +1532,40 @@
     <col min="16133" max="16134" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="76"/>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="75"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="77"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
-        <v>10503566</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="75">
-        <v>45040</v>
-      </c>
-      <c r="F3" s="75"/>
-    </row>
-    <row r="4" spans="1:7" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+    </row>
+    <row r="4" spans="1:7" ht="5.45" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="10"/>
@@ -1619,28 +1573,24 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12">
-        <v>69.3</v>
-      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="74">
-        <v>0.41</v>
-      </c>
-      <c r="F5" s="74"/>
-    </row>
-    <row r="6" spans="1:7" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+    </row>
+    <row r="6" spans="1:7" ht="7.9" customHeight="1">
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="C7" s="10"/>
       <c r="D7" s="38" t="s">
         <v>7</v>
@@ -1650,8 +1600,8 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="10.15" customHeight="1" thickBot="1"/>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="21" t="s">
         <v>9</v>
@@ -1669,41 +1619,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="36">
-        <v>2E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="C10" s="35">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D10" s="27">
-        <v>2.0999999999999999E-3</v>
-      </c>
+      <c r="D10" s="35"/>
       <c r="E10" s="43"/>
-      <c r="F10" s="51" t="s">
-        <v>37</v>
+      <c r="F10" s="51" t="str">
+        <f>IF(ABS(D10-B10)&lt;=C10,"Pass","Fail")</f>
+        <v>Fail</v>
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="37">
-        <v>2.5000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C11" s="35">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D11" s="27">
-        <v>2.5000000000000001E-3</v>
-      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="43"/>
-      <c r="F11" s="48" t="s">
-        <v>37</v>
+      <c r="F11" s="48" t="str">
+        <f t="shared" ref="F11:F43" si="0">IF(ABS(D11-B11)&lt;=C11,"Pass","Fail")</f>
+        <v>Fail</v>
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="37">
         <v>3.0000000000000001E-3</v>
@@ -1711,16 +1659,15 @@
       <c r="C12" s="35">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D12" s="27">
-        <v>3.2000000000000002E-3</v>
-      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="43"/>
-      <c r="F12" s="48" t="s">
-        <v>37</v>
+      <c r="F12" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="37">
         <v>4.0000000000000001E-3</v>
@@ -1728,16 +1675,15 @@
       <c r="C13" s="35">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D13" s="27">
-        <v>4.0000000000000001E-3</v>
-      </c>
+      <c r="D13" s="27"/>
       <c r="E13" s="43"/>
-      <c r="F13" s="48" t="s">
-        <v>37</v>
+      <c r="F13" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="37">
         <v>5.0000000000000001E-3</v>
@@ -1745,33 +1691,31 @@
       <c r="C14" s="35">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D14" s="27">
-        <v>5.1999999999999998E-3</v>
-      </c>
+      <c r="D14" s="27"/>
       <c r="E14" s="43"/>
-      <c r="F14" s="48" t="s">
-        <v>37</v>
+      <c r="F14" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
-      <c r="B15" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="27">
-        <v>6.1000000000000004E-3</v>
-      </c>
+      <c r="B15" s="37">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="35">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D15" s="27"/>
       <c r="E15" s="43"/>
-      <c r="F15" s="48" t="s">
-        <v>37</v>
+      <c r="F15" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="37">
         <v>7.0000000000000001E-3</v>
@@ -1779,16 +1723,15 @@
       <c r="C16" s="35">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D16" s="27">
-        <v>7.3000000000000001E-3</v>
-      </c>
+      <c r="D16" s="27"/>
       <c r="E16" s="43"/>
-      <c r="F16" s="48" t="s">
-        <v>37</v>
+      <c r="F16" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="37">
         <v>8.0000000000000002E-3</v>
@@ -1796,16 +1739,15 @@
       <c r="C17" s="35">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D17" s="27">
-        <v>8.0999999999999996E-3</v>
-      </c>
+      <c r="D17" s="27"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="48" t="s">
-        <v>37</v>
+      <c r="F17" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="37">
         <v>8.9999999999999993E-3</v>
@@ -1813,16 +1755,15 @@
       <c r="C18" s="35">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D18" s="27">
-        <v>9.1999999999999998E-3</v>
-      </c>
+      <c r="D18" s="27"/>
       <c r="E18" s="43"/>
-      <c r="F18" s="48" t="s">
-        <v>37</v>
+      <c r="F18" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="37">
         <v>0.01</v>
@@ -1830,16 +1771,15 @@
       <c r="C19" s="35">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="D19" s="27">
-        <v>0.01</v>
-      </c>
+      <c r="D19" s="27"/>
       <c r="E19" s="43"/>
-      <c r="F19" s="48" t="s">
-        <v>37</v>
+      <c r="F19" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="37">
         <v>1.0999999999999999E-2</v>
@@ -1847,16 +1787,15 @@
       <c r="C20" s="35">
         <v>3.5E-4</v>
       </c>
-      <c r="D20" s="27">
-        <v>1.1299999999999999E-2</v>
-      </c>
+      <c r="D20" s="27"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="48" t="s">
-        <v>37</v>
+      <c r="F20" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="37">
         <v>1.2E-2</v>
@@ -1864,16 +1803,15 @@
       <c r="C21" s="35">
         <v>3.5E-4</v>
       </c>
-      <c r="D21" s="27">
-        <v>1.2E-2</v>
-      </c>
+      <c r="D21" s="27"/>
       <c r="E21" s="43"/>
-      <c r="F21" s="48" t="s">
-        <v>37</v>
+      <c r="F21" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="37">
         <v>1.2999999999999999E-2</v>
@@ -1881,16 +1819,15 @@
       <c r="C22" s="35">
         <v>3.5E-4</v>
       </c>
-      <c r="D22" s="27">
-        <v>1.32E-2</v>
-      </c>
+      <c r="D22" s="27"/>
       <c r="E22" s="43"/>
-      <c r="F22" s="48" t="s">
-        <v>37</v>
+      <c r="F22" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="37">
         <v>1.4E-2</v>
@@ -1898,16 +1835,15 @@
       <c r="C23" s="35">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="D23" s="27">
-        <v>1.4E-2</v>
-      </c>
+      <c r="D23" s="27"/>
       <c r="E23" s="43"/>
-      <c r="F23" s="48" t="s">
-        <v>37</v>
+      <c r="F23" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="37">
         <v>1.4999999999999999E-2</v>
@@ -1915,16 +1851,15 @@
       <c r="C24" s="35">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="D24" s="27">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="D24" s="27"/>
       <c r="E24" s="43"/>
-      <c r="F24" s="48" t="s">
-        <v>37</v>
+      <c r="F24" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="37">
         <v>1.6E-2</v>
@@ -1932,16 +1867,15 @@
       <c r="C25" s="35">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="D25" s="27">
-        <v>1.6E-2</v>
-      </c>
+      <c r="D25" s="27"/>
       <c r="E25" s="43"/>
-      <c r="F25" s="48" t="s">
-        <v>37</v>
+      <c r="F25" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="37">
         <v>1.7000000000000001E-2</v>
@@ -1949,16 +1883,15 @@
       <c r="C26" s="35">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="D26" s="27">
-        <v>1.7299999999999999E-2</v>
-      </c>
+      <c r="D26" s="27"/>
       <c r="E26" s="43"/>
-      <c r="F26" s="48" t="s">
-        <v>37</v>
+      <c r="F26" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="37">
         <v>1.7999999999999999E-2</v>
@@ -1966,234 +1899,249 @@
       <c r="C27" s="35">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="D27" s="27">
-        <v>1.7899999999999999E-2</v>
-      </c>
+      <c r="D27" s="27"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="48" t="s">
-        <v>37</v>
+      <c r="F27" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="37">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C28" s="35">
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="D28" s="27">
-        <v>1.9E-2</v>
-      </c>
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="D28" s="27"/>
       <c r="E28" s="43"/>
-      <c r="F28" s="48" t="s">
-        <v>37</v>
+      <c r="F28" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="37">
-        <v>0.02</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C29" s="35">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="D29" s="27">
-        <v>1.9599999999999999E-2</v>
-      </c>
+      <c r="D29" s="27"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="48" t="s">
-        <v>37</v>
+      <c r="F29" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="37">
-        <v>2.1000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C30" s="35">
-        <v>5.5000000000000003E-4</v>
-      </c>
-      <c r="D30" s="27">
-        <v>2.0899999999999998E-2</v>
-      </c>
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="D30" s="27"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="48" t="s">
-        <v>37</v>
+      <c r="F30" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="37">
-        <v>2.1999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C31" s="35">
-        <v>5.5000000000000003E-4</v>
-      </c>
-      <c r="D31" s="27">
-        <v>2.18E-2</v>
-      </c>
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="D31" s="27"/>
       <c r="E31" s="43"/>
-      <c r="F31" s="48" t="s">
-        <v>37</v>
+      <c r="F31" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="37">
-        <v>2.3E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C32" s="35">
-        <v>5.5000000000000003E-4</v>
-      </c>
-      <c r="D32" s="27">
-        <v>2.3E-2</v>
-      </c>
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="D32" s="27"/>
       <c r="E32" s="43"/>
-      <c r="F32" s="48" t="s">
-        <v>37</v>
+      <c r="F32" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="37">
-        <v>2.4E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C33" s="35">
-        <v>5.5000000000000003E-4</v>
-      </c>
-      <c r="D33" s="27">
-        <v>2.4500000000000001E-2</v>
-      </c>
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="D33" s="27"/>
       <c r="E33" s="43"/>
-      <c r="F33" s="48" t="s">
-        <v>37</v>
+      <c r="F33" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="37">
-        <v>2.5000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C34" s="35">
-        <v>6.7000000000000002E-4</v>
-      </c>
-      <c r="D34" s="27">
-        <v>2.5000000000000001E-2</v>
-      </c>
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="D34" s="27"/>
       <c r="E34" s="43"/>
-      <c r="F34" s="48" t="s">
-        <v>37</v>
+      <c r="F34" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
-      <c r="B35" s="37">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C35" s="35">
-        <v>6.7000000000000002E-4</v>
-      </c>
-      <c r="D35" s="27">
-        <v>2.5999999999999999E-2</v>
-      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="43"/>
-      <c r="F35" s="48" t="s">
-        <v>37</v>
-      </c>
+      <c r="F35" s="48"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
-      <c r="B36" s="30">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C36" s="35">
-        <v>6.7000000000000002E-4</v>
-      </c>
-      <c r="D36" s="27">
-        <v>2.8000000000000001E-2</v>
-      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="43"/>
-      <c r="F36" s="48" t="s">
-        <v>37</v>
-      </c>
+      <c r="F36" s="48"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
-      <c r="B37" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="C37" s="35">
-        <v>6.7000000000000002E-4</v>
-      </c>
-      <c r="D37" s="27">
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>37</v>
-      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="48"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="30"/>
-      <c r="C38" s="35"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="43"/>
       <c r="F38" s="48"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="30"/>
-      <c r="C39" s="35"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="43"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="48"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1"/>
       <c r="B40" s="30"/>
-      <c r="C40" s="35"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="43"/>
       <c r="F40" s="48"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1"/>
       <c r="B41" s="30"/>
-      <c r="C41" s="35"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="43"/>
       <c r="F41" s="48"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1"/>
       <c r="B42" s="30"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="43"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="48"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="72"/>
+      <c r="E46" s="29"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="29"/>
+      <c r="G47" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2207,11 +2155,11 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
@@ -2599,43 +2547,37 @@
     <col min="16133" max="16134" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="71" t="s">
-        <v>41</v>
-      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="70" t="s">
-        <v>40</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="75">
-        <v>44676</v>
-      </c>
-      <c r="F3" s="75"/>
-    </row>
-    <row r="4" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+    </row>
+    <row r="4" spans="1:7" ht="9" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="10"/>
@@ -2643,40 +2585,40 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12">
-        <v>70</v>
-      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="74">
-        <v>0.49</v>
-      </c>
-      <c r="F5" s="74"/>
-    </row>
-    <row r="6" spans="1:7" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+    </row>
+    <row r="6" spans="1:7" ht="7.9" customHeight="1">
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="C7" s="10"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="C8" s="10"/>
       <c r="D8" s="38"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="21" t="s">
         <v>9</v>
@@ -2694,401 +2636,519 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="36">
-        <v>6.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C10" s="52">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D10" s="35">
-        <v>6.1000000000000004E-3</v>
-      </c>
+      <c r="D10" s="35"/>
       <c r="E10" s="43"/>
-      <c r="F10" s="51" t="s">
-        <v>37</v>
+      <c r="F10" s="51" t="str">
+        <f>IF(ABS(D10-B10)&lt;=C10,"Pass","Fail")</f>
+        <v>Fail</v>
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="37">
-        <v>8.0000000000000002E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="C11" s="52">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D11" s="35">
-        <v>8.0999999999999996E-3</v>
-      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="43"/>
-      <c r="F11" s="51" t="s">
-        <v>37</v>
+      <c r="F11" s="51" t="str">
+        <f t="shared" ref="F11:F43" si="0">IF(ABS(D11-B11)&lt;=C11,"Pass","Fail")</f>
+        <v>Fail</v>
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="37">
-        <v>0.01</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="C12" s="52">
-        <v>3.5E-4</v>
-      </c>
-      <c r="D12" s="35">
-        <v>0.01</v>
-      </c>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="43"/>
-      <c r="F12" s="51" t="s">
-        <v>37</v>
+      <c r="F12" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="37">
-        <v>1.0999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="C13" s="52">
-        <v>3.5E-4</v>
-      </c>
-      <c r="D13" s="35">
-        <v>1.11E-2</v>
-      </c>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D13" s="27"/>
       <c r="E13" s="43"/>
-      <c r="F13" s="51" t="s">
-        <v>37</v>
+      <c r="F13" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="37">
-        <v>1.2E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C14" s="52">
-        <v>3.5E-4</v>
-      </c>
-      <c r="D14" s="35">
-        <v>1.21E-2</v>
-      </c>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D14" s="27"/>
       <c r="E14" s="43"/>
-      <c r="F14" s="51" t="s">
-        <v>37</v>
+      <c r="F14" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="37">
-        <v>1.2999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C15" s="52">
-        <v>4.2999999999999999E-4</v>
-      </c>
-      <c r="D15" s="35">
-        <v>1.2999999999999999E-2</v>
-      </c>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D15" s="27"/>
       <c r="E15" s="43"/>
-      <c r="F15" s="51" t="s">
-        <v>37</v>
+      <c r="F15" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="37">
-        <v>1.4E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C16" s="52">
-        <v>4.2999999999999999E-4</v>
-      </c>
-      <c r="D16" s="35">
-        <v>1.4E-2</v>
-      </c>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D16" s="27"/>
       <c r="E16" s="43"/>
-      <c r="F16" s="51" t="s">
-        <v>37</v>
+      <c r="F16" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="37">
-        <v>1.4999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C17" s="52">
-        <v>4.2999999999999999E-4</v>
-      </c>
-      <c r="D17" s="35">
-        <v>1.4999999999999999E-2</v>
-      </c>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="D17" s="27"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="51" t="s">
-        <v>37</v>
+      <c r="F17" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="37">
-        <v>1.7999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C18" s="52">
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="D18" s="35">
-        <v>1.8200000000000001E-2</v>
-      </c>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="D18" s="27"/>
       <c r="E18" s="43"/>
-      <c r="F18" s="51" t="s">
-        <v>37</v>
+      <c r="F18" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="37">
-        <v>1.9E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C19" s="52">
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="D19" s="35">
-        <v>1.9199999999999998E-2</v>
-      </c>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="D19" s="27"/>
       <c r="E19" s="43"/>
-      <c r="F19" s="51" t="s">
-        <v>37</v>
+      <c r="F19" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="37">
-        <v>0.2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C20" s="52">
-        <v>5.5000000000000003E-4</v>
-      </c>
-      <c r="D20" s="35">
-        <v>2.0199999999999999E-2</v>
-      </c>
+        <v>3.5E-4</v>
+      </c>
+      <c r="D20" s="27"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="51" t="s">
-        <v>37</v>
+      <c r="F20" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
       </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="52"/>
+      <c r="B21" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="C21" s="52">
+        <v>3.5E-4</v>
+      </c>
       <c r="D21" s="27"/>
       <c r="E21" s="43"/>
-      <c r="F21" s="51"/>
+      <c r="F21" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="52"/>
+      <c r="B22" s="37">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C22" s="52">
+        <v>3.5E-4</v>
+      </c>
       <c r="D22" s="27"/>
       <c r="E22" s="43"/>
-      <c r="F22" s="51"/>
+      <c r="F22" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="52"/>
+      <c r="B23" s="37">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C23" s="52">
+        <v>4.2999999999999999E-4</v>
+      </c>
       <c r="D23" s="27"/>
       <c r="E23" s="43"/>
-      <c r="F23" s="51"/>
+      <c r="F23" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="52"/>
+      <c r="B24" s="37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C24" s="52">
+        <v>4.2999999999999999E-4</v>
+      </c>
       <c r="D24" s="27"/>
       <c r="E24" s="43"/>
-      <c r="F24" s="51"/>
+      <c r="F24" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="52"/>
+      <c r="B25" s="37">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C25" s="52">
+        <v>4.2999999999999999E-4</v>
+      </c>
       <c r="D25" s="27"/>
       <c r="E25" s="43"/>
-      <c r="F25" s="51"/>
+      <c r="F25" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="37">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C26" s="52">
+        <v>4.6999999999999999E-4</v>
+      </c>
       <c r="D26" s="27"/>
       <c r="E26" s="43"/>
-      <c r="F26" s="51"/>
+      <c r="F26" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="37">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C27" s="52">
+        <v>4.6999999999999999E-4</v>
+      </c>
       <c r="D27" s="27"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="51"/>
+      <c r="F27" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="52"/>
+      <c r="B28" s="37">
+        <v>0.02</v>
+      </c>
+      <c r="C28" s="52">
+        <v>4.6999999999999999E-4</v>
+      </c>
       <c r="D28" s="27"/>
       <c r="E28" s="43"/>
-      <c r="F28" s="51"/>
+      <c r="F28" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="52"/>
+      <c r="B29" s="37">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C29" s="52">
+        <v>4.6999999999999999E-4</v>
+      </c>
       <c r="D29" s="27"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="51"/>
+      <c r="F29" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="52"/>
+      <c r="B30" s="37">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C30" s="52">
+        <v>5.5000000000000003E-4</v>
+      </c>
       <c r="D30" s="27"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="51"/>
+      <c r="F30" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="52"/>
+      <c r="B31" s="37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C31" s="52">
+        <v>5.5000000000000003E-4</v>
+      </c>
       <c r="D31" s="27"/>
       <c r="E31" s="43"/>
-      <c r="F31" s="51"/>
+      <c r="F31" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="52"/>
+      <c r="B32" s="37">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C32" s="52">
+        <v>5.5000000000000003E-4</v>
+      </c>
       <c r="D32" s="27"/>
       <c r="E32" s="43"/>
-      <c r="F32" s="51"/>
+      <c r="F32" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="52"/>
+      <c r="B33" s="37">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C33" s="52">
+        <v>5.5000000000000003E-4</v>
+      </c>
       <c r="D33" s="27"/>
       <c r="E33" s="43"/>
-      <c r="F33" s="51"/>
+      <c r="F33" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="37">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C34" s="52">
+        <v>5.5000000000000003E-4</v>
+      </c>
       <c r="D34" s="27"/>
       <c r="E34" s="43"/>
-      <c r="F34" s="51"/>
+      <c r="F34" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="52"/>
+      <c r="B35" s="37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C35" s="52">
+        <v>6.7000000000000002E-4</v>
+      </c>
       <c r="D35" s="27"/>
       <c r="E35" s="43"/>
-      <c r="F35" s="51"/>
+      <c r="F35" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="37"/>
-      <c r="C36" s="52"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="43"/>
-      <c r="F36" s="51"/>
+      <c r="F36" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="52"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="43"/>
-      <c r="F37" s="51"/>
+      <c r="F37" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="30"/>
-      <c r="C38" s="52"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="43"/>
-      <c r="F38" s="51"/>
+      <c r="F38" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="30"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="44"/>
-      <c r="F39" s="51"/>
+      <c r="F39" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="30"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="43"/>
-      <c r="F40" s="51"/>
+      <c r="F40" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="30"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="43"/>
-      <c r="F41" s="51"/>
+      <c r="F41" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="30"/>
       <c r="C42" s="27"/>
       <c r="D42" s="18"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="51"/>
+      <c r="F42" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1">
       <c r="A43" s="1"/>
       <c r="B43" s="32"/>
       <c r="C43" s="33"/>
       <c r="D43" s="19"/>
       <c r="E43" s="46"/>
-      <c r="F43" s="49"/>
+      <c r="F43" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -3096,7 +3156,7 @@
       <c r="E44" s="29"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -3104,17 +3164,17 @@
       <c r="E45" s="29"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="20"/>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="78"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="29"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -3131,7 +3191,7 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="419" scale="86" fitToHeight="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="419" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3143,7 +3203,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
@@ -3531,28 +3591,28 @@
     <col min="16133" max="16134" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3560,10 +3620,10 @@
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-    </row>
-    <row r="4" spans="1:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+    </row>
+    <row r="4" spans="1:7" ht="10.15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="10"/>
@@ -3571,7 +3631,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -3579,16 +3639,16 @@
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-    </row>
-    <row r="6" spans="1:7" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+    </row>
+    <row r="6" spans="1:7" ht="7.9" customHeight="1">
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="C7" s="10"/>
       <c r="D7" s="38" t="s">
         <v>7</v>
@@ -3598,13 +3658,13 @@
       </c>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="7.9" customHeight="1" thickBot="1">
       <c r="C8" s="10"/>
       <c r="D8" s="38"/>
       <c r="E8" s="11"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="21" t="s">
         <v>9</v>
@@ -3621,7 +3681,7 @@
       <c r="F9" s="47"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="56">
         <v>3.7999999999999999E-2</v>
@@ -3637,7 +3697,7 @@
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="57">
         <v>5.0999999999999997E-2</v>
@@ -3653,7 +3713,7 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="57">
         <v>7.5999999999999998E-2</v>
@@ -3669,7 +3729,7 @@
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="57">
         <v>0.10199999999999999</v>
@@ -3685,7 +3745,7 @@
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="57">
         <v>0.127</v>
@@ -3701,7 +3761,7 @@
       </c>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="57">
         <v>0.152</v>
@@ -3717,7 +3777,7 @@
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="57">
         <v>0.17799999999999999</v>
@@ -3733,7 +3793,7 @@
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="57">
         <v>0.20300000000000001</v>
@@ -3749,7 +3809,7 @@
       </c>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="57">
         <v>0.22900000000000001</v>
@@ -3765,7 +3825,7 @@
       </c>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="57">
         <v>0.254</v>
@@ -3781,7 +3841,7 @@
       </c>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="57">
         <v>0.27900000000000003</v>
@@ -3797,7 +3857,7 @@
       </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="57">
         <v>0.30499999999999999</v>
@@ -3813,7 +3873,7 @@
       </c>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="57">
         <v>0.33</v>
@@ -3829,7 +3889,7 @@
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="57">
         <v>0.35599999999999998</v>
@@ -3845,7 +3905,7 @@
       </c>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="57">
         <v>0.38100000000000001</v>
@@ -3861,7 +3921,7 @@
       </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="57">
         <v>0.40600000000000003</v>
@@ -3877,7 +3937,7 @@
       </c>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="57">
         <v>0.432</v>
@@ -3893,7 +3953,7 @@
       </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="57">
         <v>0.45700000000000002</v>
@@ -3909,7 +3969,7 @@
       </c>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="57">
         <v>0.48299999999999998</v>
@@ -3925,7 +3985,7 @@
       </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="57">
         <v>0.50800000000000001</v>
@@ -3941,7 +4001,7 @@
       </c>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="57">
         <v>0.53300000000000003</v>
@@ -3957,7 +4017,7 @@
       </c>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="57">
         <v>0.63500000000000001</v>
@@ -3973,7 +4033,7 @@
       </c>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="57">
         <v>0.68600000000000005</v>
@@ -3989,7 +4049,7 @@
       </c>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="57">
         <v>0.76200000000000001</v>
@@ -4005,7 +4065,7 @@
       </c>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="57">
         <v>1.02</v>
@@ -4021,7 +4081,7 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="57"/>
       <c r="C35" s="60"/>
@@ -4033,7 +4093,7 @@
       </c>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="57"/>
       <c r="C36" s="60"/>
@@ -4045,7 +4105,7 @@
       </c>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="57"/>
       <c r="C37" s="60"/>
@@ -4057,7 +4117,7 @@
       </c>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="57"/>
       <c r="C38" s="60"/>
@@ -4069,7 +4129,7 @@
       </c>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="57"/>
       <c r="C39" s="60"/>
@@ -4081,7 +4141,7 @@
       </c>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="57"/>
       <c r="C40" s="60"/>
@@ -4093,7 +4153,7 @@
       </c>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="57"/>
       <c r="C41" s="60"/>
@@ -4105,7 +4165,7 @@
       </c>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="57"/>
       <c r="C42" s="60"/>
@@ -4117,7 +4177,7 @@
       </c>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1">
       <c r="A43" s="1"/>
       <c r="B43" s="58"/>
       <c r="C43" s="61"/>
@@ -4129,7 +4189,7 @@
       </c>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -4137,23 +4197,23 @@
       <c r="E44" s="29"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="28"/>
       <c r="E45" s="29"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="20"/>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="78"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="29"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -4181,7 +4241,7 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
@@ -4569,29 +4629,29 @@
     <col min="16133" max="16134" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="79" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="79"/>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="76"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -4599,10 +4659,10 @@
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="10"/>
@@ -4610,7 +4670,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -4618,16 +4678,16 @@
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="C7" s="10"/>
       <c r="D7" s="38" t="s">
         <v>7</v>
@@ -4637,13 +4697,13 @@
       </c>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="7.9" customHeight="1" thickBot="1">
       <c r="C8" s="10"/>
       <c r="D8" s="38"/>
       <c r="E8" s="11"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="21" t="s">
         <v>9</v>
@@ -4661,7 +4721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="62">
         <v>0.06</v>
@@ -4677,7 +4737,7 @@
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="63">
         <v>7.0000000000000007E-2</v>
@@ -4693,7 +4753,7 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="63">
         <v>0.08</v>
@@ -4709,7 +4769,7 @@
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="63">
         <v>0.1</v>
@@ -4725,7 +4785,7 @@
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="63">
         <v>0.15</v>
@@ -4741,7 +4801,7 @@
       </c>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="63">
         <v>0.2</v>
@@ -4757,7 +4817,7 @@
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="63">
         <v>0.25</v>
@@ -4773,7 +4833,7 @@
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="63">
         <v>0.3</v>
@@ -4789,7 +4849,7 @@
       </c>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="63">
         <v>0.35</v>
@@ -4805,7 +4865,7 @@
       </c>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="63">
         <v>0.4</v>
@@ -4821,7 +4881,7 @@
       </c>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="63">
         <v>0.45</v>
@@ -4837,7 +4897,7 @@
       </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="63">
         <v>0.5</v>
@@ -4853,7 +4913,7 @@
       </c>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="63">
         <v>0.55000000000000004</v>
@@ -4869,7 +4929,7 @@
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="63">
         <v>0.6</v>
@@ -4885,7 +4945,7 @@
       </c>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="63">
         <v>0.7</v>
@@ -4901,7 +4961,7 @@
       </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="63"/>
       <c r="C25" s="65"/>
@@ -4913,7 +4973,7 @@
       </c>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="63"/>
       <c r="C26" s="65"/>
@@ -4925,7 +4985,7 @@
       </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="63"/>
       <c r="C27" s="65"/>
@@ -4937,7 +4997,7 @@
       </c>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="63"/>
       <c r="C28" s="65"/>
@@ -4949,7 +5009,7 @@
       </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="63"/>
       <c r="C29" s="65"/>
@@ -4961,7 +5021,7 @@
       </c>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="63"/>
       <c r="C30" s="65"/>
@@ -4973,7 +5033,7 @@
       </c>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="63"/>
       <c r="C31" s="65"/>
@@ -4985,7 +5045,7 @@
       </c>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="63"/>
       <c r="C32" s="65"/>
@@ -4997,7 +5057,7 @@
       </c>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="63"/>
       <c r="C33" s="65"/>
@@ -5009,7 +5069,7 @@
       </c>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="63"/>
       <c r="C34" s="65"/>
@@ -5021,7 +5081,7 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="63"/>
       <c r="C35" s="66"/>
@@ -5033,7 +5093,7 @@
       </c>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="63"/>
       <c r="C36" s="66"/>
@@ -5045,7 +5105,7 @@
       </c>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="63"/>
       <c r="C37" s="66"/>
@@ -5057,7 +5117,7 @@
       </c>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="63"/>
       <c r="C38" s="66"/>
@@ -5069,7 +5129,7 @@
       </c>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="63"/>
       <c r="C39" s="66"/>
@@ -5081,7 +5141,7 @@
       </c>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="63"/>
       <c r="C40" s="66"/>
@@ -5093,7 +5153,7 @@
       </c>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="63"/>
       <c r="C41" s="66"/>
@@ -5105,7 +5165,7 @@
       </c>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="63"/>
       <c r="C42" s="66"/>
@@ -5117,7 +5177,7 @@
       </c>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1">
       <c r="A43" s="1"/>
       <c r="B43" s="64"/>
       <c r="C43" s="67"/>
@@ -5129,7 +5189,7 @@
       </c>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -5137,7 +5197,7 @@
       <c r="E44" s="29"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -5145,17 +5205,17 @@
       <c r="E45" s="29"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="20"/>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="78"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="29"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -5181,11 +5241,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6AF5D0-0571-41F6-900D-FD1E33722340}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
@@ -5573,29 +5633,29 @@
     <col min="16133" max="16134" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="72"/>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="40"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -5603,10 +5663,10 @@
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="10"/>
@@ -5614,7 +5674,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -5622,16 +5682,16 @@
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="C7" s="10"/>
       <c r="D7" s="38" t="s">
         <v>7</v>
@@ -5641,13 +5701,13 @@
       </c>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="7.9" customHeight="1" thickBot="1">
       <c r="C8" s="10"/>
       <c r="D8" s="38"/>
       <c r="E8" s="11"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="21" t="s">
         <v>9</v>
@@ -5665,7 +5725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="34"/>
       <c r="C10" s="53"/>
@@ -5677,7 +5737,7 @@
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="30"/>
       <c r="C11" s="53"/>
@@ -5689,7 +5749,7 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="30"/>
       <c r="C12" s="53"/>
@@ -5701,7 +5761,7 @@
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="30"/>
       <c r="C13" s="53"/>
@@ -5713,7 +5773,7 @@
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="30"/>
       <c r="C14" s="53"/>
@@ -5725,7 +5785,7 @@
       </c>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="30"/>
       <c r="C15" s="53"/>
@@ -5737,7 +5797,7 @@
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="30"/>
       <c r="C16" s="53"/>
@@ -5749,7 +5809,7 @@
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="30"/>
       <c r="C17" s="53"/>
@@ -5761,7 +5821,7 @@
       </c>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="30"/>
       <c r="C18" s="53"/>
@@ -5773,7 +5833,7 @@
       </c>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="30"/>
       <c r="C19" s="53"/>
@@ -5785,7 +5845,7 @@
       </c>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="30"/>
       <c r="C20" s="53"/>
@@ -5797,7 +5857,7 @@
       </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="30"/>
       <c r="C21" s="53"/>
@@ -5809,7 +5869,7 @@
       </c>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="30"/>
       <c r="C22" s="53"/>
@@ -5821,7 +5881,7 @@
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="30"/>
       <c r="C23" s="53"/>
@@ -5833,7 +5893,7 @@
       </c>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="30"/>
       <c r="C24" s="53"/>
@@ -5845,7 +5905,7 @@
       </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="30"/>
       <c r="C25" s="53"/>
@@ -5857,7 +5917,7 @@
       </c>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="30"/>
       <c r="C26" s="53"/>
@@ -5869,7 +5929,7 @@
       </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="30"/>
       <c r="C27" s="53"/>
@@ -5881,7 +5941,7 @@
       </c>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="30"/>
       <c r="C28" s="53"/>
@@ -5893,7 +5953,7 @@
       </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="30"/>
       <c r="C29" s="53"/>
@@ -5905,7 +5965,7 @@
       </c>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="30"/>
       <c r="C30" s="53"/>
@@ -5917,7 +5977,7 @@
       </c>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="30"/>
       <c r="C31" s="53"/>
@@ -5929,7 +5989,7 @@
       </c>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="30"/>
       <c r="C32" s="53"/>
@@ -5941,7 +6001,7 @@
       </c>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="30"/>
       <c r="C33" s="53"/>
@@ -5953,7 +6013,7 @@
       </c>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="30"/>
       <c r="C34" s="53"/>
@@ -5965,7 +6025,7 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="30"/>
       <c r="C35" s="54"/>
@@ -5977,7 +6037,7 @@
       </c>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="30"/>
       <c r="C36" s="54"/>
@@ -5989,7 +6049,7 @@
       </c>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="30"/>
       <c r="C37" s="54"/>
@@ -6001,7 +6061,7 @@
       </c>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="30"/>
       <c r="C38" s="54"/>
@@ -6013,7 +6073,7 @@
       </c>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="30"/>
       <c r="C39" s="54"/>
@@ -6025,7 +6085,7 @@
       </c>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="30"/>
       <c r="C40" s="54"/>
@@ -6037,7 +6097,7 @@
       </c>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="30"/>
       <c r="C41" s="54"/>
@@ -6049,7 +6109,7 @@
       </c>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="30"/>
       <c r="C42" s="54"/>
@@ -6061,7 +6121,7 @@
       </c>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1">
       <c r="A43" s="1"/>
       <c r="B43" s="32"/>
       <c r="C43" s="55"/>
@@ -6073,7 +6133,7 @@
       </c>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -6081,7 +6141,7 @@
       <c r="E44" s="29"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -6089,17 +6149,17 @@
       <c r="E45" s="29"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="20"/>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="78"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="29"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -6125,11 +6185,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0F8575-F8F0-43A3-ADD9-448F36697370}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
@@ -6517,30 +6577,30 @@
     <col min="16133" max="16134" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="3">
         <v>4320</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -6555,7 +6615,7 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="10"/>
@@ -6563,7 +6623,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -6578,13 +6638,13 @@
       </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="C7" s="10"/>
       <c r="D7" s="38" t="s">
         <v>7</v>
@@ -6594,13 +6654,13 @@
       </c>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="7.9" customHeight="1" thickBot="1">
       <c r="C8" s="10"/>
       <c r="D8" s="38"/>
       <c r="E8" s="11"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="21" t="s">
         <v>9</v>
@@ -6615,7 +6675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="36">
         <v>5.0000000000000001E-4</v>
@@ -6631,7 +6691,7 @@
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="37">
         <v>5.0000000000000001E-4</v>
@@ -6647,7 +6707,7 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="37" t="s">
         <v>17</v>
@@ -6663,7 +6723,7 @@
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="37" t="s">
         <v>17</v>
@@ -6679,7 +6739,7 @@
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="37" t="s">
         <v>17</v>
@@ -6695,7 +6755,7 @@
       </c>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="37" t="s">
         <v>19</v>
@@ -6711,7 +6771,7 @@
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="37" t="s">
         <v>19</v>
@@ -6727,7 +6787,7 @@
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="37" t="s">
         <v>21</v>
@@ -6741,7 +6801,7 @@
       <c r="E17" s="24"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="37" t="s">
         <v>22</v>
@@ -6755,7 +6815,7 @@
       <c r="E18" s="24"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="37" t="s">
         <v>23</v>
@@ -6769,7 +6829,7 @@
       <c r="E19" s="24"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="37" t="s">
         <v>24</v>
@@ -6783,7 +6843,7 @@
       <c r="E20" s="24"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="37" t="s">
         <v>25</v>
@@ -6797,7 +6857,7 @@
       <c r="E21" s="24"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="37" t="s">
         <v>26</v>
@@ -6811,7 +6871,7 @@
       <c r="E22" s="24"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="37" t="s">
         <v>27</v>
@@ -6825,7 +6885,7 @@
       <c r="E23" s="24"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="37" t="s">
         <v>28</v>
@@ -6839,7 +6899,7 @@
       <c r="E24" s="24"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="37" t="s">
         <v>30</v>
@@ -6853,7 +6913,7 @@
       <c r="E25" s="24"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="37" t="s">
         <v>32</v>
@@ -6867,7 +6927,7 @@
       <c r="E26" s="24"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="37" t="s">
         <v>34</v>
@@ -6881,7 +6941,7 @@
       <c r="E27" s="24"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="37">
         <v>0.03</v>
@@ -6895,7 +6955,7 @@
       <c r="E28" s="24"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="37"/>
       <c r="C29" s="35"/>
@@ -6903,7 +6963,7 @@
       <c r="E29" s="24"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="37"/>
       <c r="C30" s="35"/>
@@ -6911,7 +6971,7 @@
       <c r="E30" s="24"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="37"/>
       <c r="C31" s="35"/>
@@ -6919,7 +6979,7 @@
       <c r="E31" s="24"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="37"/>
       <c r="C32" s="35"/>
@@ -6927,7 +6987,7 @@
       <c r="E32" s="24"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="37"/>
       <c r="C33" s="35"/>
@@ -6935,7 +6995,7 @@
       <c r="E33" s="24"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="37"/>
       <c r="C34" s="35"/>
@@ -6943,7 +7003,7 @@
       <c r="E34" s="24"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="30"/>
       <c r="C35" s="27"/>
@@ -6951,7 +7011,7 @@
       <c r="E35" s="24"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="30"/>
       <c r="C36" s="27"/>
@@ -6959,7 +7019,7 @@
       <c r="E36" s="24"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="30"/>
       <c r="C37" s="27"/>
@@ -6967,7 +7027,7 @@
       <c r="E37" s="24"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="30"/>
       <c r="C38" s="27"/>
@@ -6975,7 +7035,7 @@
       <c r="E38" s="24"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="30"/>
       <c r="C39" s="27"/>
@@ -6983,7 +7043,7 @@
       <c r="E39" s="31"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="30"/>
       <c r="C40" s="27"/>
@@ -6991,7 +7051,7 @@
       <c r="E40" s="24"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="30"/>
       <c r="C41" s="27"/>
@@ -6999,7 +7059,7 @@
       <c r="E41" s="24"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="30"/>
       <c r="C42" s="27"/>
@@ -7007,7 +7067,7 @@
       <c r="E42" s="25"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1">
       <c r="A43" s="1"/>
       <c r="B43" s="32"/>
       <c r="C43" s="33"/>
@@ -7015,7 +7075,7 @@
       <c r="E43" s="26"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -7023,7 +7083,7 @@
       <c r="E44" s="29"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -7031,7 +7091,7 @@
       <c r="E45" s="29"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -7039,7 +7099,7 @@
       <c r="E46" s="29"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -7055,4 +7115,266 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaLengthInSeconds xmlns="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1ed8a9e0-df63-4c43-b0d4-c670c11769ef" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7106659C9D26643AA540CBD094E0397" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5018c6155e8e4379c85041cfa1560781">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5" xmlns:ns3="1ed8a9e0-df63-4c43-b0d4-c670c11769ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e78bda9f13f2b71844c90a831e5f907d" ns2:_="" ns3:_="">
+    <xsd:import namespace="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5"/>
+    <xsd:import namespace="1ed8a9e0-df63-4c43-b0d4-c670c11769ef"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="df72c3d0-7fd0-4fbd-ab6b-9c2f7dd1f9d2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1ed8a9e0-df63-4c43-b0d4-c670c11769ef" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{40d5f31d-8b80-432c-9f59-750b76e5ea61}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1ed8a9e0-df63-4c43-b0d4-c670c11769ef">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91C40D87-ECAA-4983-A1B5-96D42DA98FFA}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB9323DE-04E2-486B-BEFA-DB49909AA2AF}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B3871C-4899-4CF0-A603-2531129498CE}"/>
 </file>